--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_16-46.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_16-46.xlsx
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>ZANOGLIDE 2/30 MG 30 TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -2122,17 +2125,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2140,7 +2143,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2148,17 +2151,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2166,7 +2169,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2174,13 +2177,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2200,13 +2203,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2218,7 +2221,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2226,13 +2229,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2244,7 +2247,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2252,13 +2255,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2278,13 +2281,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>19.199999999999999</v>
+        <v>35</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2296,7 +2299,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2304,13 +2307,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>20</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2330,51 +2333,77 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="K61" s="10">
-        <v>3457.54</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="11">
+    <row r="61" ht="24.75" customHeight="1">
+      <c r="A61" s="6">
+        <v>58</v>
+      </c>
+      <c t="s" r="B61" s="7">
         <v>91</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c t="s" r="F62" s="12">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c t="s" r="H61" s="8">
+        <v>38</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9">
+        <v>30</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c t="s" r="N61" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" ht="26.25" customHeight="1">
+      <c r="K62" s="10">
+        <v>3482.54</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="11">
         <v>92</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
-      <c t="s" r="I62" s="14">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c t="s" r="F63" s="12">
         <v>93</v>
       </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+      <c t="s" r="I63" s="14">
+        <v>94</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="185">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2553,10 +2582,13 @@
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="I62:N62"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="I63:N63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
